--- a/Excel/HKPL_di.xlsx
+++ b/Excel/HKPL_di.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel-Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E13A7F77-BF5B-45EE-832A-D4FFD1BF725B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F414EF-2231-429C-8864-A2273763BD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{06749088-779A-40A2-A2A4-6F6989068BF2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{06749088-779A-40A2-A2A4-6F6989068BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,17 +30,46 @@
     <t>DI REPORT</t>
   </si>
   <si>
-    <t>Hare Krishna Steel Tube &amp; Pipes Pvt Ltd (DC Capacity : 6 MW)</t>
+    <t>ADDRESS  - Chaurenga, Simga</t>
   </si>
   <si>
-    <t>ADDRESS  - Chaurenga, Simga</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hare Krishna Steel Tube &amp; Pipes Pvt Ltd</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>(DC Capacity : 6 MW)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +100,20 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Book Antiqua"/>
       <family val="1"/>
@@ -437,7 +480,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -463,7 +506,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
